--- a/中间数据集/经过清洗的数据集1.xlsx
+++ b/中间数据集/经过清洗的数据集1.xlsx
@@ -983,7 +983,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>黑色</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
